--- a/data/trans_bre/P37_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>-11,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,33%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 5,19</t>
+          <t>-20,25; 5,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 5,63</t>
+          <t>-6,6; 13,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 9,82</t>
+          <t>-10,43; 7,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 9,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 10,48</t>
+          <t>-14,24; 19,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 18,58</t>
+          <t>-28,67; 10,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 4,8</t>
+          <t>-10,71; 29,06</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-16,26; 14,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-23,6; 56,78</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,6%</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>-6,59%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,16%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 3,18</t>
+          <t>-8,94; 7,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 1,68</t>
+          <t>-10,58; 2,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 1,01</t>
+          <t>-10,65; 1,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 1,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 2,61</t>
+          <t>-11,59; 5,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 1,69</t>
+          <t>-13,42; 13,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 2,96</t>
+          <t>-15,44; 3,73</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; 2,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,27; 10,1</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>-8,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-9,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 9,84</t>
+          <t>-8,9; 9,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 0,92</t>
+          <t>-12,28; 1,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 0,17</t>
+          <t>-12,19; -0,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 10,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 15,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 1,17</t>
+          <t>-7,7; 8,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 0,17</t>
+          <t>-12,04; 14,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 18,97</t>
+          <t>-17,0; 2,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-16,83; -0,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-11,02; 15,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>-14,1%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,19%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 2,3</t>
+          <t>-7,07; 6,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -0,59</t>
+          <t>-17,06; -2,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 0,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -0,87</t>
+          <t>-11,03; 5,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -0,64</t>
+          <t>-10,89; 11,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 1,74</t>
+          <t>-23,3; -3,57</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-15,97; 8,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,93</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-4,54</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-7,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-7,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 2,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; -0,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,39; -0,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 2,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,31; 4,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,64; -1,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-12,71; -1,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,97; 4,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P37_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-11,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-3,33%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,24%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.561560470851578</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.77658420476644</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.631935399295615</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>2.951939268908665</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.08904903144902307</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.03195614330131578</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.04291460597766016</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>0.05935882832885682</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-20,25; 5,85</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 13,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 7,77</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-14,24; 19,82</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-28,67; 10,57</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; 29,06</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-16,26; 14,61</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-23,6; 56,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.58578143000022</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.573235577737098</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.20209146889412</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-11.50154525334374</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2732524422267078</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1233993191689985</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1693227240521287</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>-0.1964025272818025</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.259876324052998</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.09389503562218</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.873832191653973</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>22.17302181972826</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1393425829507856</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.25043602724914</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1214922927047072</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>0.6173578901304457</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,32%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-6,59%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-7,64%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-5,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; 7,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,58; 2,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 1,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-11,59; 5,36</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-13,42; 13,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 3,73</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 2,87</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-18,27; 10,1</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.3350475877351156</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.479696117622344</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.111480670394362</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-2.656154957222989</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.005355562534598462</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.06929007221221357</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.06755494104250263</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>-0.04537808451000017</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,89%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-8,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-9,05%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.182433038018901</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.93132917215313</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.1386342061614</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-11.2576311634679</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.121030583222407</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1569653593223922</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1579679159699655</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>-0.1766734625848381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; 9,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,28; 1,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,19; -0,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 8,87</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-12,04; 14,58</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 2,26</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-16,83; -0,88</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; 15,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.618632361920527</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.094517422717322</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.581726064369704</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>5.9886142538166</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1516068303602668</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.03530581215538425</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.04526616957423674</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>0.1103400945055529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,7</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,68%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-14,1%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-4,19%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.4035056864394315</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.676691303078774</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.889107367333091</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.5846212975290421</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.005961000580980241</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.08243719658566244</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.08478847848016489</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.009128630196059697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 6,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,06; -2,41</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; 5,13</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-10,89; 11,55</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-23,3; -3,57</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-15,97; 8,47</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.62608160641705</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.7218248623747</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.77949046759355</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-7.41871743897484</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1081211470219315</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1740463669230525</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1623137446779759</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.108311583587773</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.26024147617595</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9059816516825623</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.1372154068921943</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>9.148500879919389</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1668574432805904</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.01376854713351132</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.001986029285308191</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>0.1601221287242385</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,93</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,54</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-2,02</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-7,52%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-7,11%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 2,97</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; -0,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,39; -0,85</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 2,71</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-9,31; 4,75</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; -1,54</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-12,71; -1,38</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-10,97; 4,71</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.108719185882989</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.642160713683584</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-4.250267037447585</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.7520615623208715</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01719986682508622</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.05672908489278978</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.06668744513105607</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>-0.01278238700775309</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.809260727812294</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.96871805471128</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-8.135977709402827</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-6.23135370475464</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.09998230012575758</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1209350910885178</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1228031483089112</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>-0.1019857574063188</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.845910129466844</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6515625329390506</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.5899601913700614</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>5.465879770652495</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.08164096424128638</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.009654006764530057</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.009471143684014723</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>0.09691176315627399</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
